--- a/presentation_files/messages.xlsx
+++ b/presentation_files/messages.xlsx
@@ -36,7 +36,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sure thing, your building used up 48 MWh of electricity last week.  That is 10% higher the same week last year.</t>
+    <t>Sure thing, your building used up 48 MWh of electricity last week.  That is 10% higher than the same week last year.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
